--- a/Вычисления.xlsx
+++ b/Вычисления.xlsx
@@ -34,17 +34,26 @@
     <t>Изменение клиренса</t>
   </si>
   <si>
-    <t>Разница между внешним диаметром двух колес?</t>
+    <t>https://www.drive2.ru/l/8031763/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -68,13 +77,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,13 +399,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -402,7 +414,7 @@
       </c>
       <c r="B2">
         <f>B5*2+(C1*25.4)</f>
-        <v>586</v>
+        <v>577.59999999999991</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -411,7 +423,7 @@
       </c>
       <c r="B3">
         <f>A1</f>
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -419,20 +431,12 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>2*PI()*(B2/2)</f>
-        <v>1840.9732950036187</v>
-      </c>
-      <c r="C4">
-        <f>ROUNDUP(B4,0)</f>
-        <v>1841</v>
-      </c>
-      <c r="D4">
-        <f>C4/1000</f>
-        <v>1.841</v>
+        <f>ROUNDUP(2*PI()*(B2/2),0)</f>
+        <v>1815</v>
       </c>
       <c r="F4">
-        <f>1000/D4</f>
-        <v>543.18305268875611</v>
+        <f>1000/B4</f>
+        <v>0.55096418732782371</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -441,11 +445,11 @@
       </c>
       <c r="B5">
         <f>(A1*B1)/100</f>
-        <v>102.5</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <f>ROUNDUP(B5,0)</f>
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -460,11 +464,16 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Вычисления.xlsx
+++ b/Вычисления.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Диаметр</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>https://www.drive2.ru/l/8031763/</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,14 +79,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -386,86 +405,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>185</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>60</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="2">
+        <v>185</v>
+      </c>
+      <c r="F1" s="2">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <f>B5*2+(C1*25.4)</f>
-        <v>577.59999999999991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="2">
+        <f>ROUNDUP(B5*2+(C1*25.4),0)</f>
+        <v>578</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>ROUNDUP(F5*2+(G1*25.4),0)</f>
+        <v>553</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="I2">
+        <f>ROUNDUP(((F2*100)/B2)-100,1)</f>
+        <v>-4.3999999999999995</v>
+      </c>
+      <c r="L2">
+        <f>(I2+100)/100</f>
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>A1</f>
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E1</f>
+        <v>185</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="I3">
+        <f>ROUNDUP(((B2*100)/F2)-100,1)</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f>ROUNDUP(2*PI()*(B2/2),0)</f>
-        <v>1815</v>
-      </c>
-      <c r="F4">
-        <f>1000/B4</f>
-        <v>0.55096418732782371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <f>ROUNDUP(2*PI()*(F2/2),0)</f>
+        <v>1738</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <f>(A1*B1)/100</f>
         <v>111</v>
       </c>
-      <c r="C5">
-        <f>ROUNDUP(B5,0)</f>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <f>(E1*F1)/100</f>
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2"/>
+      <c r="L5">
+        <f>100*L2</f>
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="2">
+        <f>1000/(B4/1000)</f>
+        <v>550.66079295154179</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <f>1000/(F4/1000)</f>
+        <v>575.37399309551211</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
